--- a/Maps/map元データ/1Fmap.xlsx
+++ b/Maps/map元データ/1Fmap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gakuen_app\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gakuen_app\Maps\map元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,6 +114,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -158,6 +159,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -202,6 +204,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -246,6 +249,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -290,6 +294,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -336,6 +341,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -380,6 +386,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -424,6 +431,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -468,6 +476,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -512,6 +525,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -556,6 +570,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -600,6 +615,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -644,6 +660,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -688,6 +705,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -732,6 +750,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -778,6 +797,7 @@
             <a:gd name="adj1" fmla="val 2631"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -822,6 +842,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -866,6 +887,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -910,6 +932,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -998,6 +1021,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1042,6 +1066,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1086,6 +1111,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1130,6 +1156,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1262,7 +1289,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1322,6 +1349,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1366,6 +1394,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1514,6 +1543,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1755,6 +1785,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1799,6 +1830,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -2570,7 +2602,7 @@
   <dimension ref="AY21:AY28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
